--- a/1/自动计算下单手数.xlsx
+++ b/1/自动计算下单手数.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
-    <sheet name="250" sheetId="1" r:id="rId1"/>
+    <sheet name="300" sheetId="1" r:id="rId1"/>
     <sheet name="1500" sheetId="3" r:id="rId2"/>
     <sheet name="5500" sheetId="2" r:id="rId3"/>
     <sheet name="10000" sheetId="4" r:id="rId4"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="69">
   <si>
     <t>总额</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -231,10 +231,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比特币M1周期，每天1单，500点盈利</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>下单手数=仓位金额x11%÷500点</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -243,7 +239,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>比特币M1周期，每天1单，500点盈利</t>
+    <t>比特币M5周期，每天1单，500点盈利</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -798,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -818,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -831,7 +827,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -877,14 +873,14 @@
       </c>
       <c r="B4" s="6">
         <f>C4*E4/500</f>
-        <v>6.1600000000000002E-2</v>
+        <v>6.6000000000000003E-2</v>
       </c>
       <c r="C4" s="14">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="D4" s="16">
         <f>C4*(1+E4)</f>
-        <v>310.8</v>
+        <v>333.00000000000006</v>
       </c>
       <c r="E4" s="19">
         <v>0.11</v>
@@ -894,15 +890,15 @@
       </c>
       <c r="G4" s="6">
         <f>H4*E4/500</f>
-        <v>0.29473071248160138</v>
+        <v>0.31578290623028726</v>
       </c>
       <c r="H4" s="11">
         <f>D18</f>
-        <v>1339.6850567345516</v>
+        <v>1435.3768465013056</v>
       </c>
       <c r="I4" s="11">
         <f>H4*(1+E4)</f>
-        <v>1487.0504129753524</v>
+        <v>1593.2682996164494</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -911,15 +907,15 @@
       </c>
       <c r="B5" s="6">
         <f t="shared" ref="B5:B18" si="0">C5*E5/500</f>
-        <v>6.8376000000000006E-2</v>
+        <v>7.326000000000002E-2</v>
       </c>
       <c r="C5" s="11">
         <f>D4</f>
-        <v>310.8</v>
+        <v>333.00000000000006</v>
       </c>
       <c r="D5" s="16">
         <f>C5*(1+E5)</f>
-        <v>344.98800000000006</v>
+        <v>369.63000000000011</v>
       </c>
       <c r="E5" s="19">
         <v>0.11</v>
@@ -929,15 +925,15 @@
       </c>
       <c r="G5" s="6">
         <f t="shared" ref="G5:G18" si="1">H5*E5/500</f>
-        <v>0.32715109085457755</v>
+        <v>0.3505190259156189</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H22" si="2">I4</f>
-        <v>1487.0504129753524</v>
+        <v>1593.2682996164494</v>
       </c>
       <c r="I5" s="11">
         <f t="shared" ref="I5:I34" si="3">H5*(1+E5)</f>
-        <v>1650.6259584026413</v>
+        <v>1768.5278125742591</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -946,15 +942,15 @@
       </c>
       <c r="B6" s="6">
         <f t="shared" si="0"/>
-        <v>7.5897360000000011E-2</v>
+        <v>8.1318600000000019E-2</v>
       </c>
       <c r="C6" s="11">
         <f t="shared" ref="C6:C34" si="4">D5</f>
-        <v>344.98800000000006</v>
+        <v>369.63000000000011</v>
       </c>
       <c r="D6" s="16">
         <f t="shared" ref="D6:D34" si="5">C6*(1+E6)</f>
-        <v>382.93668000000008</v>
+        <v>410.28930000000014</v>
       </c>
       <c r="E6" s="19">
         <v>0.11</v>
@@ -964,15 +960,15 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>0.3631377108485811</v>
+        <v>0.38907611876633702</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
-        <v>1650.6259584026413</v>
+        <v>1768.5278125742591</v>
       </c>
       <c r="I6" s="11">
         <f t="shared" si="3"/>
-        <v>1832.194813826932</v>
+        <v>1963.0658719574278</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -981,15 +977,15 @@
       </c>
       <c r="B7" s="6">
         <f t="shared" si="0"/>
-        <v>8.4246069600000015E-2</v>
+        <v>9.0263646000000031E-2</v>
       </c>
       <c r="C7" s="11">
         <f t="shared" si="4"/>
-        <v>382.93668000000008</v>
+        <v>410.28930000000014</v>
       </c>
       <c r="D7" s="16">
         <f t="shared" si="5"/>
-        <v>425.05971480000011</v>
+        <v>455.42112300000019</v>
       </c>
       <c r="E7" s="19">
         <v>0.11</v>
@@ -999,15 +995,15 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>0.40308285904192503</v>
+        <v>0.43187449183063409</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
-        <v>1832.194813826932</v>
+        <v>1963.0658719574278</v>
       </c>
       <c r="I7" s="11">
         <f t="shared" si="3"/>
-        <v>2033.7362433478947</v>
+        <v>2179.003117872745</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1016,15 +1012,15 @@
       </c>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
-        <v>9.3513137256000023E-2</v>
+        <v>0.10019264706000004</v>
       </c>
       <c r="C8" s="11">
         <f t="shared" si="4"/>
-        <v>425.05971480000011</v>
+        <v>455.42112300000019</v>
       </c>
       <c r="D8" s="16">
         <f t="shared" si="5"/>
-        <v>471.81628342800019</v>
+        <v>505.51744653000026</v>
       </c>
       <c r="E8" s="19">
         <v>0.11</v>
@@ -1034,15 +1030,15 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>0.44742197353653684</v>
+        <v>0.47938068593200389</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
-        <v>2033.7362433478947</v>
+        <v>2179.003117872745</v>
       </c>
       <c r="I8" s="11">
         <f t="shared" si="3"/>
-        <v>2257.4472301161632</v>
+        <v>2418.6934608387469</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1051,15 +1047,15 @@
       </c>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
-        <v>0.10379958235416004</v>
+        <v>0.11121383823660005</v>
       </c>
       <c r="C9" s="11">
         <f t="shared" si="4"/>
-        <v>471.81628342800019</v>
+        <v>505.51744653000026</v>
       </c>
       <c r="D9" s="16">
         <f t="shared" si="5"/>
-        <v>523.71607460508028</v>
+        <v>561.12436564830034</v>
       </c>
       <c r="E9" s="19">
         <v>0.11</v>
@@ -1069,15 +1065,15 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>0.49663839062555587</v>
+        <v>0.53211256138452423</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
-        <v>2257.4472301161632</v>
+        <v>2418.6934608387469</v>
       </c>
       <c r="I9" s="11">
         <f t="shared" si="3"/>
-        <v>2505.7664254289411</v>
+        <v>2684.7497415310095</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1086,15 +1082,15 @@
       </c>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
-        <v>0.11521753641311766</v>
+        <v>0.12344736044262608</v>
       </c>
       <c r="C10" s="11">
         <f t="shared" si="4"/>
-        <v>523.71607460508028</v>
+        <v>561.12436564830034</v>
       </c>
       <c r="D10" s="16">
         <f t="shared" si="5"/>
-        <v>581.3248428116392</v>
+        <v>622.84804586961343</v>
       </c>
       <c r="E10" s="19">
         <v>0.11</v>
@@ -1104,15 +1100,15 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>0.55126861359436707</v>
+        <v>0.59064494313682214</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
-        <v>2505.7664254289411</v>
+        <v>2684.7497415310095</v>
       </c>
       <c r="I10" s="11">
         <f t="shared" si="3"/>
-        <v>2781.400732226125</v>
+        <v>2980.0722130994209</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1121,15 +1117,15 @@
       </c>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
-        <v>0.12789146541856064</v>
+        <v>0.13702657009131497</v>
       </c>
       <c r="C11" s="11">
         <f t="shared" si="4"/>
-        <v>581.3248428116392</v>
+        <v>622.84804586961343</v>
       </c>
       <c r="D11" s="16">
         <f t="shared" si="5"/>
-        <v>645.27057552091958</v>
+        <v>691.36133091527097</v>
       </c>
       <c r="E11" s="19">
         <v>0.11</v>
@@ -1139,15 +1135,15 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>0.61190816108974755</v>
+        <v>0.65561588688187256</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
-        <v>2781.400732226125</v>
+        <v>2980.0722130994209</v>
       </c>
       <c r="I11" s="11">
         <f t="shared" si="3"/>
-        <v>3087.3548127709992</v>
+        <v>3307.8801565403573</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1156,15 +1152,15 @@
       </c>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
-        <v>0.14195952661460232</v>
+        <v>0.15209949280135962</v>
       </c>
       <c r="C12" s="11">
         <f t="shared" si="4"/>
-        <v>645.27057552091958</v>
+        <v>691.36133091527097</v>
       </c>
       <c r="D12" s="16">
         <f t="shared" si="5"/>
-        <v>716.25033882822083</v>
+        <v>767.41107731595082</v>
       </c>
       <c r="E12" s="19">
         <v>0.11</v>
@@ -1174,15 +1170,15 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>0.67921805880961983</v>
+        <v>0.72773363443887862</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
-        <v>3087.3548127709992</v>
+        <v>3307.8801565403573</v>
       </c>
       <c r="I12" s="11">
         <f t="shared" si="3"/>
-        <v>3426.9638421758095</v>
+        <v>3671.7469737597971</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1191,15 +1187,15 @@
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
-        <v>0.15757507454220859</v>
+        <v>0.16883043700950917</v>
       </c>
       <c r="C13" s="11">
         <f t="shared" si="4"/>
-        <v>716.25033882822083</v>
+        <v>767.41107731595082</v>
       </c>
       <c r="D13" s="16">
         <f t="shared" si="5"/>
-        <v>795.03787609932522</v>
+        <v>851.82629582070547</v>
       </c>
       <c r="E13" s="19">
         <v>0.11</v>
@@ -1209,15 +1205,15 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>0.75393204527867808</v>
+        <v>0.80778433422715534</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
-        <v>3426.9638421758095</v>
+        <v>3671.7469737597971</v>
       </c>
       <c r="I13" s="11">
         <f t="shared" si="3"/>
-        <v>3803.9298648151489</v>
+        <v>4075.6391408733753</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1226,15 +1222,15 @@
       </c>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
-        <v>0.17490833274185155</v>
+        <v>0.18740178508055522</v>
       </c>
       <c r="C14" s="11">
         <f t="shared" si="4"/>
-        <v>795.03787609932522</v>
+        <v>851.82629582070547</v>
       </c>
       <c r="D14" s="16">
         <f t="shared" si="5"/>
-        <v>882.49204247025102</v>
+        <v>945.52718836098313</v>
       </c>
       <c r="E14" s="19">
         <v>0.11</v>
@@ -1244,15 +1240,15 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>0.8368645702593327</v>
+        <v>0.89664061099214254</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
-        <v>3803.9298648151489</v>
+        <v>4075.6391408733753</v>
       </c>
       <c r="I14" s="11">
         <f t="shared" si="3"/>
-        <v>4222.3621499448154</v>
+        <v>4523.9594463694466</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1261,15 +1257,15 @@
       </c>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
-        <v>0.19414824934345523</v>
+        <v>0.2080159814394163</v>
       </c>
       <c r="C15" s="11">
         <f t="shared" si="4"/>
-        <v>882.49204247025102</v>
+        <v>945.52718836098313</v>
       </c>
       <c r="D15" s="16">
         <f t="shared" si="5"/>
-        <v>979.56616714197867</v>
+        <v>1049.5351790806915</v>
       </c>
       <c r="E15" s="19">
         <v>0.11</v>
@@ -1279,15 +1275,15 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>0.92891967298785938</v>
+        <v>0.99527107820127825</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
-        <v>4222.3621499448154</v>
+        <v>4523.9594463694466</v>
       </c>
       <c r="I15" s="11">
         <f t="shared" si="3"/>
-        <v>4686.8219864387456</v>
+        <v>5021.5949854700866</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1296,15 +1292,15 @@
       </c>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
-        <v>0.21550455677123531</v>
+        <v>0.23089773939775213</v>
       </c>
       <c r="C16" s="11">
         <f t="shared" si="4"/>
-        <v>979.56616714197867</v>
+        <v>1049.5351790806915</v>
       </c>
       <c r="D16" s="16">
         <f t="shared" si="5"/>
-        <v>1087.3184455275964</v>
+        <v>1164.9840487795677</v>
       </c>
       <c r="E16" s="19">
         <v>0.11</v>
@@ -1314,15 +1310,15 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>1.0311008370165242</v>
+        <v>1.104750896803419</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
-        <v>4686.8219864387456</v>
+        <v>5021.5949854700866</v>
       </c>
       <c r="I16" s="11">
         <f t="shared" si="3"/>
-        <v>5202.3724049470084</v>
+        <v>5573.9704338717966</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1331,15 +1327,15 @@
       </c>
       <c r="B17" s="6">
         <f t="shared" si="0"/>
-        <v>0.2392100580160712</v>
+        <v>0.2562964907315049</v>
       </c>
       <c r="C17" s="11">
         <f t="shared" si="4"/>
-        <v>1087.3184455275964</v>
+        <v>1164.9840487795677</v>
       </c>
       <c r="D17" s="16">
         <f t="shared" si="5"/>
-        <v>1206.9234745356321</v>
+        <v>1293.1322941453202</v>
       </c>
       <c r="E17" s="19">
         <v>0.11</v>
@@ -1349,15 +1345,15 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>1.1445219290883419</v>
+        <v>1.2262734954517953</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
-        <v>5202.3724049470084</v>
+        <v>5573.9704338717966</v>
       </c>
       <c r="I17" s="11">
         <f t="shared" si="3"/>
-        <v>5774.63336949118</v>
+        <v>6187.1071815976948</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1366,15 +1362,15 @@
       </c>
       <c r="B18" s="6">
         <f t="shared" si="0"/>
-        <v>0.26552316439783907</v>
+        <v>0.28448910471197048</v>
       </c>
       <c r="C18" s="11">
         <f t="shared" si="4"/>
-        <v>1206.9234745356321</v>
+        <v>1293.1322941453202</v>
       </c>
       <c r="D18" s="16">
         <f t="shared" si="5"/>
-        <v>1339.6850567345516</v>
+        <v>1435.3768465013056</v>
       </c>
       <c r="E18" s="19">
         <v>0.11</v>
@@ -1384,15 +1380,15 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>1.2704193412880596</v>
+        <v>1.361163579951493</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
-        <v>5774.63336949118</v>
+        <v>6187.1071815976948</v>
       </c>
       <c r="I18" s="11">
         <f t="shared" si="3"/>
-        <v>6409.8430401352107</v>
+        <v>6867.6889715734414</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="5" customFormat="1" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1414,15 +1410,15 @@
       </c>
       <c r="B20" s="6">
         <f>C20*E20/500</f>
-        <v>1.4101654688297462</v>
+        <v>1.510891573746157</v>
       </c>
       <c r="C20" s="11">
         <f>I18</f>
-        <v>6409.8430401352107</v>
+        <v>6867.6889715734414</v>
       </c>
       <c r="D20" s="16">
         <f t="shared" si="5"/>
-        <v>7114.9257745500845</v>
+        <v>7623.1347584465211</v>
       </c>
       <c r="E20" s="19">
         <v>0.11</v>
@@ -1432,15 +1428,15 @@
       </c>
       <c r="G20" s="6">
         <f>H20*E20/500</f>
-        <v>6.7470628789795866</v>
+        <v>7.2289959417638476</v>
       </c>
       <c r="H20" s="11">
         <f>D34</f>
-        <v>30668.467631725394</v>
+        <v>32859.072462562945</v>
       </c>
       <c r="I20" s="11">
         <f t="shared" si="3"/>
-        <v>34041.999071215192</v>
+        <v>36473.570433444875</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1449,15 +1445,15 @@
       </c>
       <c r="B21" s="6">
         <f t="shared" ref="B21:B34" si="6">C21*E21/500</f>
-        <v>1.5652836704010185</v>
+        <v>1.6770896468582346</v>
       </c>
       <c r="C21" s="11">
         <f t="shared" si="4"/>
-        <v>7114.9257745500845</v>
+        <v>7623.1347584465211</v>
       </c>
       <c r="D21" s="16">
         <f t="shared" si="5"/>
-        <v>7897.5676097505948</v>
+        <v>8461.67958187564</v>
       </c>
       <c r="E21" s="19">
         <v>0.11</v>
@@ -1467,15 +1463,15 @@
       </c>
       <c r="G21" s="6">
         <f t="shared" ref="G21:G34" si="7">H21*E21/500</f>
-        <v>7.4892397956673422</v>
+        <v>8.0241854953578731</v>
       </c>
       <c r="H21" s="11">
         <f t="shared" si="2"/>
-        <v>34041.999071215192</v>
+        <v>36473.570433444875</v>
       </c>
       <c r="I21" s="11">
         <f t="shared" si="3"/>
-        <v>37786.618969048868</v>
+        <v>40485.663181123811</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1484,15 +1480,15 @@
       </c>
       <c r="B22" s="6">
         <f t="shared" si="6"/>
-        <v>1.7374648741451308</v>
+        <v>1.8615695080126409</v>
       </c>
       <c r="C22" s="11">
         <f t="shared" si="4"/>
-        <v>7897.5676097505948</v>
+        <v>8461.67958187564</v>
       </c>
       <c r="D22" s="16">
         <f t="shared" si="5"/>
-        <v>8766.3000468231603</v>
+        <v>9392.4643358819612</v>
       </c>
       <c r="E22" s="19">
         <v>0.11</v>
@@ -1502,15 +1498,15 @@
       </c>
       <c r="G22" s="6">
         <f t="shared" si="7"/>
-        <v>8.3130561731907502</v>
+        <v>8.9068458998472373</v>
       </c>
       <c r="H22" s="11">
         <f t="shared" si="2"/>
-        <v>37786.618969048868</v>
+        <v>40485.663181123811</v>
       </c>
       <c r="I22" s="11">
         <f t="shared" si="3"/>
-        <v>41943.147055644251</v>
+        <v>44939.086131047436</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1519,15 +1515,15 @@
       </c>
       <c r="B23" s="6">
         <f t="shared" si="6"/>
-        <v>1.9285860103010952</v>
+        <v>2.0663421538940314</v>
       </c>
       <c r="C23" s="11">
         <f t="shared" si="4"/>
-        <v>8766.3000468231603</v>
+        <v>9392.4643358819612</v>
       </c>
       <c r="D23" s="16">
         <f t="shared" si="5"/>
-        <v>9730.5930519737085</v>
+        <v>10425.635412828979</v>
       </c>
       <c r="E23" s="19">
         <v>0.11</v>
@@ -1537,15 +1533,15 @@
       </c>
       <c r="G23" s="6">
         <f t="shared" si="7"/>
-        <v>9.227492352241736</v>
+        <v>9.8865989488304375</v>
       </c>
       <c r="H23" s="11">
         <f t="shared" ref="H23:H34" si="8">I22</f>
-        <v>41943.147055644251</v>
+        <v>44939.086131047436</v>
       </c>
       <c r="I23" s="11">
         <f t="shared" si="3"/>
-        <v>46556.89323176512</v>
+        <v>49882.385605462659</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1554,15 +1550,15 @@
       </c>
       <c r="B24" s="6">
         <f t="shared" si="6"/>
-        <v>2.1407304714342157</v>
+        <v>2.2936397908223753</v>
       </c>
       <c r="C24" s="11">
         <f t="shared" si="4"/>
-        <v>9730.5930519737085</v>
+        <v>10425.635412828979</v>
       </c>
       <c r="D24" s="16">
         <f t="shared" si="5"/>
-        <v>10800.958287690817</v>
+        <v>11572.455308240167</v>
       </c>
       <c r="E24" s="19">
         <v>0.11</v>
@@ -1572,15 +1568,15 @@
       </c>
       <c r="G24" s="6">
         <f t="shared" si="7"/>
-        <v>10.242516510988326</v>
+        <v>10.974124833201786</v>
       </c>
       <c r="H24" s="11">
         <f t="shared" si="8"/>
-        <v>46556.89323176512</v>
+        <v>49882.385605462659</v>
       </c>
       <c r="I24" s="11">
         <f t="shared" si="3"/>
-        <v>51678.151487259289</v>
+        <v>55369.44802206356</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1589,15 +1585,15 @@
       </c>
       <c r="B25" s="6">
         <f t="shared" si="6"/>
-        <v>2.3762108232919799</v>
+        <v>2.5459401678128368</v>
       </c>
       <c r="C25" s="11">
         <f t="shared" si="4"/>
-        <v>10800.958287690817</v>
+        <v>11572.455308240167</v>
       </c>
       <c r="D25" s="16">
         <f t="shared" si="5"/>
-        <v>11989.063699336808</v>
+        <v>12845.425392146586</v>
       </c>
       <c r="E25" s="19">
         <v>0.11</v>
@@ -1607,15 +1603,15 @@
       </c>
       <c r="G25" s="6">
         <f t="shared" si="7"/>
-        <v>11.369193327197042</v>
+        <v>12.181278564853983</v>
       </c>
       <c r="H25" s="11">
         <f t="shared" si="8"/>
-        <v>51678.151487259289</v>
+        <v>55369.44802206356</v>
       </c>
       <c r="I25" s="11">
         <f t="shared" si="3"/>
-        <v>57362.748150857813</v>
+        <v>61460.08730449056</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1624,15 +1620,15 @@
       </c>
       <c r="B26" s="6">
         <f t="shared" si="6"/>
-        <v>2.6375940138540979</v>
+        <v>2.8259935862722489</v>
       </c>
       <c r="C26" s="11">
         <f t="shared" si="4"/>
-        <v>11989.063699336808</v>
+        <v>12845.425392146586</v>
       </c>
       <c r="D26" s="16">
         <f t="shared" si="5"/>
-        <v>13307.860706263858</v>
+        <v>14258.422185282712</v>
       </c>
       <c r="E26" s="19">
         <v>0.11</v>
@@ -1642,15 +1638,15 @@
       </c>
       <c r="G26" s="6">
         <f t="shared" si="7"/>
-        <v>12.61980459318872</v>
+        <v>13.521219206987924</v>
       </c>
       <c r="H26" s="11">
         <f t="shared" si="8"/>
-        <v>57362.748150857813</v>
+        <v>61460.08730449056</v>
       </c>
       <c r="I26" s="11">
         <f t="shared" si="3"/>
-        <v>63672.650447452179</v>
+        <v>68220.696907984529</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1659,15 +1655,15 @@
       </c>
       <c r="B27" s="6">
         <f t="shared" si="6"/>
-        <v>2.9277293553780486</v>
+        <v>3.1368528807621967</v>
       </c>
       <c r="C27" s="11">
         <f t="shared" si="4"/>
-        <v>13307.860706263858</v>
+        <v>14258.422185282712</v>
       </c>
       <c r="D27" s="16">
         <f t="shared" si="5"/>
-        <v>14771.725383952884</v>
+        <v>15826.848625663812</v>
       </c>
       <c r="E27" s="19">
         <v>0.11</v>
@@ -1677,15 +1673,15 @@
       </c>
       <c r="G27" s="6">
         <f t="shared" si="7"/>
-        <v>14.00798309843948</v>
+        <v>15.008553319756597</v>
       </c>
       <c r="H27" s="11">
         <f t="shared" si="8"/>
-        <v>63672.650447452179</v>
+        <v>68220.696907984529</v>
       </c>
       <c r="I27" s="11">
         <f t="shared" si="3"/>
-        <v>70676.641996671926</v>
+        <v>75724.973567862835</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1694,15 +1690,15 @@
       </c>
       <c r="B28" s="6">
         <f t="shared" si="6"/>
-        <v>3.2497795844696342</v>
+        <v>3.4819066976460387</v>
       </c>
       <c r="C28" s="11">
         <f t="shared" si="4"/>
-        <v>14771.725383952884</v>
+        <v>15826.848625663812</v>
       </c>
       <c r="D28" s="16">
         <f t="shared" si="5"/>
-        <v>16396.615176187701</v>
+        <v>17567.801974486832</v>
       </c>
       <c r="E28" s="19">
         <v>0.11</v>
@@ -1712,15 +1708,15 @@
       </c>
       <c r="G28" s="6">
         <f t="shared" si="7"/>
-        <v>15.548861239267824</v>
+        <v>16.659494184929823</v>
       </c>
       <c r="H28" s="11">
         <f t="shared" si="8"/>
-        <v>70676.641996671926</v>
+        <v>75724.973567862835</v>
       </c>
       <c r="I28" s="11">
         <f t="shared" si="3"/>
-        <v>78451.072616305843</v>
+        <v>84054.720660327759</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1729,15 +1725,15 @@
       </c>
       <c r="B29" s="6">
         <f t="shared" si="6"/>
-        <v>3.6072553387612944</v>
+        <v>3.8649164343871032</v>
       </c>
       <c r="C29" s="11">
         <f t="shared" si="4"/>
-        <v>16396.615176187701</v>
+        <v>17567.801974486832</v>
       </c>
       <c r="D29" s="16">
         <f t="shared" si="5"/>
-        <v>18200.242845568351</v>
+        <v>19500.260191680387</v>
       </c>
       <c r="E29" s="19">
         <v>0.11</v>
@@ -1747,15 +1743,15 @@
       </c>
       <c r="G29" s="6">
         <f t="shared" si="7"/>
-        <v>17.259235975587284</v>
+        <v>18.492038545272106</v>
       </c>
       <c r="H29" s="11">
         <f t="shared" si="8"/>
-        <v>78451.072616305843</v>
+        <v>84054.720660327759</v>
       </c>
       <c r="I29" s="11">
         <f t="shared" si="3"/>
-        <v>87080.690604099495</v>
+        <v>93300.739932963814</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1764,15 +1760,15 @@
       </c>
       <c r="B30" s="6">
         <f t="shared" si="6"/>
-        <v>4.0040534260250373</v>
+        <v>4.2900572421696852</v>
       </c>
       <c r="C30" s="11">
         <f t="shared" si="4"/>
-        <v>18200.242845568351</v>
+        <v>19500.260191680387</v>
       </c>
       <c r="D30" s="16">
         <f t="shared" si="5"/>
-        <v>20202.269558580872</v>
+        <v>21645.288812765233</v>
       </c>
       <c r="E30" s="19">
         <v>0.11</v>
@@ -1782,15 +1778,15 @@
       </c>
       <c r="G30" s="6">
         <f t="shared" si="7"/>
-        <v>19.157751932901892</v>
+        <v>20.526162785252041</v>
       </c>
       <c r="H30" s="11">
         <f t="shared" si="8"/>
-        <v>87080.690604099495</v>
+        <v>93300.739932963814</v>
       </c>
       <c r="I30" s="11">
         <f t="shared" si="3"/>
-        <v>96659.566570550451</v>
+        <v>103563.82132558984</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1799,15 +1795,15 @@
       </c>
       <c r="B31" s="6">
         <f t="shared" si="6"/>
-        <v>4.4444993028877917</v>
+        <v>4.7619635388083514</v>
       </c>
       <c r="C31" s="11">
         <f t="shared" si="4"/>
-        <v>20202.269558580872</v>
+        <v>21645.288812765233</v>
       </c>
       <c r="D31" s="16">
         <f t="shared" si="5"/>
-        <v>22424.51921002477</v>
+        <v>24026.270582169411</v>
       </c>
       <c r="E31" s="19">
         <v>0.11</v>
@@ -1817,15 +1813,15 @@
       </c>
       <c r="G31" s="6">
         <f t="shared" si="7"/>
-        <v>21.265104645521099</v>
+        <v>22.784040691629766</v>
       </c>
       <c r="H31" s="11">
         <f t="shared" si="8"/>
-        <v>96659.566570550451</v>
+        <v>103563.82132558984</v>
       </c>
       <c r="I31" s="11">
         <f t="shared" si="3"/>
-        <v>107292.11889331101</v>
+        <v>114955.84167140473</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1834,15 +1830,15 @@
       </c>
       <c r="B32" s="6">
         <f t="shared" si="6"/>
-        <v>4.9333942262054498</v>
+        <v>5.2857795280772706</v>
       </c>
       <c r="C32" s="11">
         <f t="shared" si="4"/>
-        <v>22424.51921002477</v>
+        <v>24026.270582169411</v>
       </c>
       <c r="D32" s="16">
         <f t="shared" si="5"/>
-        <v>24891.216323127497</v>
+        <v>26669.160346208049</v>
       </c>
       <c r="E32" s="19">
         <v>0.11</v>
@@ -1852,15 +1848,15 @@
       </c>
       <c r="G32" s="6">
         <f t="shared" si="7"/>
-        <v>23.604266156528421</v>
+        <v>25.29028516770904</v>
       </c>
       <c r="H32" s="11">
         <f t="shared" si="8"/>
-        <v>107292.11889331101</v>
+        <v>114955.84167140473</v>
       </c>
       <c r="I32" s="11">
         <f t="shared" si="3"/>
-        <v>119094.25197157523</v>
+        <v>127600.98425525926</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1869,15 +1865,15 @@
       </c>
       <c r="B33" s="6">
         <f t="shared" si="6"/>
-        <v>5.4760675910880492</v>
+        <v>5.867215276165771</v>
       </c>
       <c r="C33" s="11">
         <f t="shared" si="4"/>
-        <v>24891.216323127497</v>
+        <v>26669.160346208049</v>
       </c>
       <c r="D33" s="16">
         <f t="shared" si="5"/>
-        <v>27629.250118671524</v>
+        <v>29602.767984290938</v>
       </c>
       <c r="E33" s="19">
         <v>0.11</v>
@@ -1887,15 +1883,15 @@
       </c>
       <c r="G33" s="6">
         <f t="shared" si="7"/>
-        <v>26.200735433746551</v>
+        <v>28.072216536157036</v>
       </c>
       <c r="H33" s="11">
         <f t="shared" si="8"/>
-        <v>119094.25197157523</v>
+        <v>127600.98425525926</v>
       </c>
       <c r="I33" s="11">
         <f t="shared" si="3"/>
-        <v>132194.61968844853</v>
+        <v>141637.09252333778</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1904,15 +1900,15 @@
       </c>
       <c r="B34" s="6">
         <f t="shared" si="6"/>
-        <v>6.0784350261077353</v>
+        <v>6.512608956544006</v>
       </c>
       <c r="C34" s="11">
         <f t="shared" si="4"/>
-        <v>27629.250118671524</v>
+        <v>29602.767984290938</v>
       </c>
       <c r="D34" s="16">
         <f t="shared" si="5"/>
-        <v>30668.467631725394</v>
+        <v>32859.072462562945</v>
       </c>
       <c r="E34" s="19">
         <v>0.11</v>
@@ -1922,15 +1918,15 @@
       </c>
       <c r="G34" s="6">
         <f t="shared" si="7"/>
-        <v>29.082816331458673</v>
+        <v>31.160160355134309</v>
       </c>
       <c r="H34" s="11">
         <f t="shared" si="8"/>
-        <v>132194.61968844853</v>
+        <v>141637.09252333778</v>
       </c>
       <c r="I34" s="11">
         <f t="shared" si="3"/>
-        <v>146736.02785417787</v>
+        <v>157217.17270090495</v>
       </c>
     </row>
   </sheetData>
@@ -1949,7 +1945,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1968,7 +1964,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -1981,7 +1977,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2043,8 +2039,8 @@
         <v>44</v>
       </c>
       <c r="G4" s="6">
-        <f>H4*E4/600</f>
-        <v>1.3157621092928635</v>
+        <f>H4*E4/500</f>
+        <v>1.5789145311514363</v>
       </c>
       <c r="H4" s="11">
         <f>D18</f>
@@ -2078,8 +2074,8 @@
         <v>45</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G18" si="1">H5*E5/600</f>
-        <v>1.4604959413150784</v>
+        <f t="shared" ref="G5:G18" si="1">H5*E5/500</f>
+        <v>1.7525951295780942</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H34" si="2">I4</f>
@@ -2114,7 +2110,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>1.6211504948597373</v>
+        <v>1.9453805938316848</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
@@ -2149,7 +2145,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>1.7994770492943086</v>
+        <v>2.1593724591531704</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
@@ -2184,7 +2180,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>1.9974195247166828</v>
+        <v>2.3969034296600196</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
@@ -2219,7 +2215,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>2.2171356724355182</v>
+        <v>2.6605628069226217</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
@@ -2254,7 +2250,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>2.4610205964034249</v>
+        <v>2.9532247156841098</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
@@ -2289,7 +2285,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>2.7317328620078021</v>
+        <v>3.2780794344093622</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
@@ -2324,7 +2320,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>3.0322234768286607</v>
+        <v>3.638668172194393</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
@@ -2359,7 +2355,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>3.3657680592798136</v>
+        <v>4.0389216711357765</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
@@ -2394,7 +2390,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>3.7360025458005937</v>
+        <v>4.4832030549607129</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
@@ -2429,7 +2425,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>4.1469628258386591</v>
+        <v>4.9763553910063907</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
@@ -2464,7 +2460,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>4.6031287366809117</v>
+        <v>5.5237544840170942</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
@@ -2499,7 +2495,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>5.1094728977158121</v>
+        <v>6.1313674772589746</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
@@ -2534,7 +2530,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>5.6715149164645515</v>
+        <v>6.8058178997574625</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
@@ -3099,7 +3095,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3118,7 +3114,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3131,7 +3127,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -3193,8 +3189,8 @@
         <v>44</v>
       </c>
       <c r="G4" s="6">
-        <f>H4*E4/600</f>
-        <v>4.8244610674071664</v>
+        <f>H4*E4/500</f>
+        <v>5.7893532808885997</v>
       </c>
       <c r="H4" s="11">
         <f>D18</f>
@@ -3228,8 +3224,8 @@
         <v>45</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G18" si="1">H5*E5/600</f>
-        <v>5.3551517848219552</v>
+        <f t="shared" ref="G5:G18" si="1">H5*E5/500</f>
+        <v>6.4261821417863461</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H34" si="2">I4</f>
@@ -3264,7 +3260,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>5.9442184811523706</v>
+        <v>7.1330621773828442</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
@@ -3299,7 +3295,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>6.5980825140791319</v>
+        <v>7.917699016894959</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
@@ -3334,7 +3330,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>7.3238715906278378</v>
+        <v>8.7886459087534057</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
@@ -3369,7 +3365,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>8.1294974655969003</v>
+        <v>9.7553969587162808</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
@@ -3404,7 +3400,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>9.0237421868125605</v>
+        <v>10.828490624175073</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
@@ -3439,7 +3435,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>10.016353827361943</v>
+        <v>12.019624592834333</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
@@ -3474,7 +3470,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>11.118152748371758</v>
+        <v>13.34178329804611</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
@@ -3509,7 +3505,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>12.341149550692652</v>
+        <v>14.809379460831181</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
@@ -3544,7 +3540,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>13.698676001268844</v>
+        <v>16.438411201522612</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
@@ -3579,7 +3575,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>15.205530361408419</v>
+        <v>18.246636433690103</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
@@ -3614,7 +3610,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>16.878138701163348</v>
+        <v>20.253766441396017</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
@@ -3649,7 +3645,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>18.734733958291319</v>
+        <v>22.481680749949582</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
@@ -3684,7 +3680,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>20.795554693703362</v>
+        <v>24.954665632444033</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
@@ -4248,8 +4244,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4268,7 +4264,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -4281,7 +4277,7 @@
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -4343,8 +4339,8 @@
         <v>44</v>
       </c>
       <c r="G4" s="6">
-        <f>H4*E4/600</f>
-        <v>8.7717473952857556</v>
+        <f>H4*E4/500</f>
+        <v>10.526096874342908</v>
       </c>
       <c r="H4" s="11">
         <f>D18</f>
@@ -4378,8 +4374,8 @@
         <v>45</v>
       </c>
       <c r="G5" s="6">
-        <f t="shared" ref="G5:G18" si="1">H5*E5/600</f>
-        <v>9.7366396087671898</v>
+        <f t="shared" ref="G5:G18" si="1">H5*E5/500</f>
+        <v>11.683967530520627</v>
       </c>
       <c r="H5" s="11">
         <f t="shared" ref="H5:H34" si="2">I4</f>
@@ -4414,7 +4410,7 @@
       </c>
       <c r="G6" s="6">
         <f t="shared" si="1"/>
-        <v>10.807669965731581</v>
+        <v>12.969203958877896</v>
       </c>
       <c r="H6" s="11">
         <f t="shared" si="2"/>
@@ -4449,7 +4445,7 @@
       </c>
       <c r="G7" s="6">
         <f t="shared" si="1"/>
-        <v>11.996513661962057</v>
+        <v>14.395816394354467</v>
       </c>
       <c r="H7" s="11">
         <f t="shared" si="2"/>
@@ -4484,7 +4480,7 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="1"/>
-        <v>13.316130164777885</v>
+        <v>15.979356197733461</v>
       </c>
       <c r="H8" s="11">
         <f t="shared" si="2"/>
@@ -4519,7 +4515,7 @@
       </c>
       <c r="G9" s="6">
         <f t="shared" si="1"/>
-        <v>14.780904482903452</v>
+        <v>17.737085379484142</v>
       </c>
       <c r="H9" s="11">
         <f t="shared" si="2"/>
@@ -4554,7 +4550,7 @@
       </c>
       <c r="G10" s="6">
         <f t="shared" si="1"/>
-        <v>16.406803976022832</v>
+        <v>19.688164771227399</v>
       </c>
       <c r="H10" s="11">
         <f t="shared" si="2"/>
@@ -4589,7 +4585,7 @@
       </c>
       <c r="G11" s="6">
         <f t="shared" si="1"/>
-        <v>18.211552413385345</v>
+        <v>21.853862896062417</v>
       </c>
       <c r="H11" s="11">
         <f t="shared" si="2"/>
@@ -4624,7 +4620,7 @@
       </c>
       <c r="G12" s="6">
         <f t="shared" si="1"/>
-        <v>20.214823178857738</v>
+        <v>24.257787814629285</v>
       </c>
       <c r="H12" s="11">
         <f t="shared" si="2"/>
@@ -4659,7 +4655,7 @@
       </c>
       <c r="G13" s="6">
         <f t="shared" si="1"/>
-        <v>22.438453728532089</v>
+        <v>26.926144474238505</v>
       </c>
       <c r="H13" s="11">
         <f t="shared" si="2"/>
@@ -4694,7 +4690,7 @@
       </c>
       <c r="G14" s="6">
         <f t="shared" si="1"/>
-        <v>24.906683638670621</v>
+        <v>29.888020366404749</v>
       </c>
       <c r="H14" s="11">
         <f t="shared" si="2"/>
@@ -4729,7 +4725,7 @@
       </c>
       <c r="G15" s="6">
         <f t="shared" si="1"/>
-        <v>27.646418838924394</v>
+        <v>33.175702606709272</v>
       </c>
       <c r="H15" s="11">
         <f t="shared" si="2"/>
@@ -4764,7 +4760,7 @@
       </c>
       <c r="G16" s="6">
         <f t="shared" si="1"/>
-        <v>30.687524911206079</v>
+        <v>36.825029893447294</v>
       </c>
       <c r="H16" s="11">
         <f t="shared" si="2"/>
@@ -4799,7 +4795,7 @@
       </c>
       <c r="G17" s="6">
         <f t="shared" si="1"/>
-        <v>34.063152651438756</v>
+        <v>40.875783181726511</v>
       </c>
       <c r="H17" s="11">
         <f t="shared" si="2"/>
@@ -4834,7 +4830,7 @@
       </c>
       <c r="G18" s="6">
         <f t="shared" si="1"/>
-        <v>37.810099443097016</v>
+        <v>45.372119331716419</v>
       </c>
       <c r="H18" s="11">
         <f t="shared" si="2"/>
